--- a/Klassifikation Privacy Models.xlsx
+++ b/Klassifikation Privacy Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f2bc7ff35962419/Uni/WS 2018-19/Bachelor Thesis/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{934DD446-8764-47A8-A202-A9091EBD47F2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{5C7579B0-9D4E-484B-990C-4100A8D248D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>k-Anonymity</t>
   </si>
@@ -63,9 +63,6 @@
     <t>hierarchial distance t-closeness</t>
   </si>
   <si>
-    <t>PM \ Attacks</t>
-  </si>
-  <si>
     <t>inclusion</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>PM \ Attacks secured</t>
   </si>
 </sst>
 </file>
@@ -162,11 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,7 +490,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,56 +504,56 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -557,16 +561,16 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -576,10 +580,10 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -589,10 +593,10 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -600,12 +604,14 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -615,10 +621,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -628,10 +634,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -641,10 +647,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -654,10 +660,10 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -667,10 +673,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -680,153 +686,153 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Klassifikation Privacy Models.xlsx
+++ b/Klassifikation Privacy Models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f2bc7ff35962419/Uni/WS 2018-19/Bachelor Thesis/Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Uni\WS 2018-19\Bachelor Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{934DD446-8764-47A8-A202-A9091EBD47F2}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2F7AA14C-537F-4C34-8815-B16455BA06D2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{5C7579B0-9D4E-484B-990C-4100A8D248D5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>k-Anonymity</t>
   </si>
@@ -111,14 +111,38 @@
     <t>X</t>
   </si>
   <si>
-    <t>PM \ Attacks secured</t>
+    <t>PM \ Attacks mitigated</t>
+  </si>
+  <si>
+    <t>strenger als t-closeness</t>
+  </si>
+  <si>
+    <t>Notizen</t>
+  </si>
+  <si>
+    <t>verwandt zu k-anonymity, aber weniger infoverlust</t>
+  </si>
+  <si>
+    <t>l faktor mit log berechnet, Formel in Paper</t>
+  </si>
+  <si>
+    <t>basis form von l-diversity mit absoluten zahlen als l faktior</t>
+  </si>
+  <si>
+    <t>for numerical values</t>
+  </si>
+  <si>
+    <t>for categorical attributes, every distance 1</t>
+  </si>
+  <si>
+    <t>for categorical attributes, hiearchical tree needed for distance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +150,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,11 +197,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -171,6 +219,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +542,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +551,8 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -518,13 +571,15 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -539,7 +594,7 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -556,7 +611,7 @@
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -590,16 +645,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
@@ -617,11 +678,17 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -656,11 +723,17 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -670,10 +743,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -683,10 +762,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -708,11 +793,15 @@
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -722,10 +811,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -799,8 +894,12 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="5"/>
@@ -836,5 +935,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Klassifikation Privacy Models.xlsx
+++ b/Klassifikation Privacy Models.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Uni\WS 2018-19\Bachelor Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{2F7AA14C-537F-4C34-8815-B16455BA06D2}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E579498D-5B3C-47C6-B52C-3F868D3DC89A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{5C7579B0-9D4E-484B-990C-4100A8D248D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>k-Anonymity</t>
   </si>
@@ -114,15 +119,9 @@
     <t>PM \ Attacks mitigated</t>
   </si>
   <si>
-    <t>strenger als t-closeness</t>
-  </si>
-  <si>
     <t>Notizen</t>
   </si>
   <si>
-    <t>verwandt zu k-anonymity, aber weniger infoverlust</t>
-  </si>
-  <si>
     <t>l faktor mit log berechnet, Formel in Paper</t>
   </si>
   <si>
@@ -136,6 +135,121 @@
   </si>
   <si>
     <t>for categorical attributes, hiearchical tree needed for distance</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>Datensätze</t>
+  </si>
+  <si>
+    <t>Mediacal Data, Person specific data</t>
+  </si>
+  <si>
+    <t>Physicians and domegraphics ontario, CUP, fatal
+crash information database from the department of transportation</t>
+  </si>
+  <si>
+    <t>use in prosecutor model</t>
+  </si>
+  <si>
+    <t>meidcal data</t>
+  </si>
+  <si>
+    <t>makes sure no values are present too often or too rarely</t>
+  </si>
+  <si>
+    <t>Adult Database from the UCI Machine Learning
+Repository,Lands End Database</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>adult dataset
+from the UC Irvine machine learning repository</t>
+  </si>
+  <si>
+    <t>simlar use cases to k-anonymitiy and l-diversity</t>
+  </si>
+  <si>
+    <t>datasets from UCI machine learning repository</t>
+  </si>
+  <si>
+    <t>strenger als t-closeness, mulriplikativer ansatz</t>
+  </si>
+  <si>
+    <t>microdata for government agencies, hospitals</t>
+  </si>
+  <si>
+    <t>CENSUS</t>
+  </si>
+  <si>
+    <t>ähnlich zu t-closeness und delta discl pri., gibt acht auf SA mit wenig vorkommen, for categrical data only</t>
+  </si>
+  <si>
+    <t>strenger als basic, gibt auch acht auf SA mit großem vorkommen, for categrical data only</t>
+  </si>
+  <si>
+    <t>UCI adult dataset</t>
+  </si>
+  <si>
+    <t>medical data</t>
+  </si>
+  <si>
+    <t>prob that a tuple ies ina atable is between two values dmin and dmax</t>
+  </si>
+  <si>
+    <t>no privacy guarentees, inclusion of subset defined ( extends d-presence)</t>
+  </si>
+  <si>
+    <t>Adult dataset dataset from the U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>corresponds to k-anonymity (SH)</t>
+  </si>
+  <si>
+    <t>corresponds to k-map (SH)</t>
+  </si>
+  <si>
+    <t>corresponds to k-anonymity (0-risk)</t>
+  </si>
+  <si>
+    <t>corresponds to k-map (0-risk)</t>
+  </si>
+  <si>
+    <t>US Census, Crash statistics
+(CS), a database about fatal traffic accidents, Time use survey (TUS), Health interviews (HI), a database of records
+from a survey on the health of the U.S. population.</t>
+  </si>
+  <si>
+    <t>presence or absence of reocrd does not effect the output, privacy not an attribute of a dataset, but of the data processing method, Attacks mitigated taken from arx, based on e-differential
+privacy, (e, d)-differential privacy allows for
+higher data quality</t>
+  </si>
+  <si>
+    <t>marketer model, enforcing thresholds on the proportion of records that are unique within the underlying population</t>
+  </si>
+  <si>
+    <t>X
+(in marketer model)</t>
+  </si>
+  <si>
+    <t>X ??</t>
+  </si>
+  <si>
+    <t>enforcing a threshold on the average re-identification risk of the records
+keine Literatur??</t>
+  </si>
+  <si>
+    <t>restrict the fraction of records which are unique regarding the quasi-identifiers
+keine Literatur??</t>
+  </si>
+  <si>
+    <t>adult, fars, cup, pharm, ed, niday</t>
+  </si>
+  <si>
+    <t>verwandt zu k-anonymity, aber weniger infoverlust, use in other models (journalist model)</t>
   </si>
 </sst>
 </file>
@@ -174,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,33 +311,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,45 +655,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D7039D-FE06-4613-A188-CDA269E31E3A}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -588,13 +708,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -605,13 +729,17 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -622,26 +750,40 @@
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
@@ -652,15 +794,19 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
@@ -669,13 +815,19 @@
         <v>27</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -686,41 +838,65 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -731,15 +907,19 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
@@ -750,15 +930,19 @@
       <c r="E12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
@@ -769,28 +953,38 @@
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -799,15 +993,19 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
@@ -818,120 +1016,178 @@
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Klassifikation Privacy Models.xlsx
+++ b/Klassifikation Privacy Models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabia\OneDrive\Uni\WS 2018-19\Bachelor Thesis\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E579498D-5B3C-47C6-B52C-3F868D3DC89A}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{BA1EC6BB-9751-4B52-9C2E-BE0FEA8C1C3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{C07BDC18-CCF5-4AD8-9DB3-8B8C947092EE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{5C7579B0-9D4E-484B-990C-4100A8D248D5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="70">
   <si>
     <t>k-Anonymity</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t>Adult dataset dataset from the U.S. Census Bureau</t>
-  </si>
-  <si>
-    <t>corresponds to k-anonymity (SH)</t>
-  </si>
-  <si>
-    <t>corresponds to k-map (SH)</t>
   </si>
   <si>
     <t>corresponds to k-anonymity (0-risk)</t>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>verwandt zu k-anonymity, aber weniger infoverlust, use in other models (journalist model)</t>
+  </si>
+  <si>
+    <t>SH --&gt; generalization</t>
+  </si>
+  <si>
+    <t>medicine</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,11 +864,13 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -994,7 +996,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>43</v>
@@ -1038,7 +1040,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>43</v>
@@ -1059,7 +1061,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>43</v>
@@ -1080,7 +1082,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>43</v>
@@ -1101,7 +1103,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>43</v>
@@ -1139,19 +1141,19 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -1160,13 +1162,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1177,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
